--- a/docs/Banco do Brasil CNAB 400 Retorno normalizado.xlsx
+++ b/docs/Banco do Brasil CNAB 400 Retorno normalizado.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="337">
   <si>
     <t xml:space="preserve">Nome do arquivo:</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t xml:space="preserve">typebilling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">billingType</t>
   </si>
   <si>
     <t xml:space="preserve">TIPO DE COBRANÇA
@@ -367,6 +370,9 @@
   </si>
   <si>
     <t xml:space="preserve">typebillingcommand72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">billingTypeCommand72</t>
   </si>
   <si>
     <t xml:space="preserve">TIPO DE COBRANÇA PARA COMANDO 72
@@ -384,6 +390,9 @@
     <t xml:space="preserve">dayscalc</t>
   </si>
   <si>
+    <t xml:space="preserve">days</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIAS PARA CÁLCULO
 a) carteiras 11, 12, 15, 16, 7, 18 e 31: quando o título for liquidado, é
 preenchido com o número de dias decorridos desde o vencimento até a
@@ -396,6 +405,9 @@
   </si>
   <si>
     <t xml:space="preserve">occurcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motive</t>
   </si>
   <si>
     <t xml:space="preserve">NATUREZA DO RECEBIMENTO
@@ -565,24 +577,36 @@
     <t xml:space="preserve">portfoliovar</t>
   </si>
   <si>
+    <t xml:space="preserve">portfolioVariation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conta Caução</t>
   </si>
   <si>
     <t xml:space="preserve">escrowaccount</t>
   </si>
   <si>
+    <t xml:space="preserve">escrowAccountFlag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taxa para Desconto</t>
   </si>
   <si>
     <t xml:space="preserve">discounttx</t>
   </si>
   <si>
+    <t xml:space="preserve">discountPercentage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taxa IOF</t>
   </si>
   <si>
     <t xml:space="preserve">ioftx</t>
   </si>
   <si>
+    <t xml:space="preserve">iofPercentage</t>
+  </si>
+  <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
@@ -605,6 +629,9 @@
   </si>
   <si>
     <t xml:space="preserve">command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occurrenceCode</t>
   </si>
   <si>
     <t xml:space="preserve">COMANDO
@@ -635,6 +662,9 @@
     <t xml:space="preserve">saleoffdate</t>
   </si>
   <si>
+    <t xml:space="preserve">occurrenceDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">24</t>
   </si>
   <si>
@@ -642,6 +672,9 @@
   </si>
   <si>
     <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yourNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Brancos</t>
@@ -741,6 +774,9 @@
     <t xml:space="preserve">creditdate</t>
   </si>
   <si>
+    <t xml:space="preserve">creditDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATA DO CRÉDITO
 Informado nos registros com comando igual a 06, 07, 08 e 15 nas posições 109/110.
 Nos demais casos conterão brancos.</t>
@@ -755,6 +791,9 @@
     <t xml:space="preserve">billingfare</t>
   </si>
   <si>
+    <t xml:space="preserve">billingFare</t>
+  </si>
+  <si>
     <t xml:space="preserve">34</t>
   </si>
   <si>
@@ -764,6 +803,9 @@
     <t xml:space="preserve">otherexpens</t>
   </si>
   <si>
+    <t xml:space="preserve">otherDebits</t>
+  </si>
+  <si>
     <t xml:space="preserve">35</t>
   </si>
   <si>
@@ -773,6 +815,9 @@
     <t xml:space="preserve">interestdiscount</t>
   </si>
   <si>
+    <t xml:space="preserve">discountInterest</t>
+  </si>
+  <si>
     <t xml:space="preserve">36</t>
   </si>
   <si>
@@ -782,6 +827,9 @@
     <t xml:space="preserve">discountiof</t>
   </si>
   <si>
+    <t xml:space="preserve">iof</t>
+  </si>
+  <si>
     <t xml:space="preserve">37</t>
   </si>
   <si>
@@ -812,6 +860,9 @@
     <t xml:space="preserve">erceivedvalue</t>
   </si>
   <si>
+    <t xml:space="preserve">mainValue</t>
+  </si>
+  <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
@@ -821,6 +872,9 @@
     <t xml:space="preserve">dayinterest</t>
   </si>
   <si>
+    <t xml:space="preserve">interests</t>
+  </si>
+  <si>
     <t xml:space="preserve">41</t>
   </si>
   <si>
@@ -830,12 +884,18 @@
     <t xml:space="preserve">otherreceipt</t>
   </si>
   <si>
+    <t xml:space="preserve">otherCredits</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abatimento não aproveitado pelo sacado</t>
   </si>
   <si>
     <t xml:space="preserve">abatmentnotuse</t>
   </si>
   <si>
+    <t xml:space="preserve">rebateNotUsed</t>
+  </si>
+  <si>
     <t xml:space="preserve">43</t>
   </si>
   <si>
@@ -845,6 +905,9 @@
     <t xml:space="preserve">releasevalue</t>
   </si>
   <si>
+    <t xml:space="preserve">releaseValue</t>
+  </si>
+  <si>
     <t xml:space="preserve">44</t>
   </si>
   <si>
@@ -852,6 +915,9 @@
   </si>
   <si>
     <t xml:space="preserve">dbitorcredit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creditDebitFlag</t>
   </si>
   <si>
     <t xml:space="preserve">INDICATIVO DE DÉBITO/CRÉDITO
@@ -867,6 +933,9 @@
   </si>
   <si>
     <t xml:space="preserve">valueindicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valueFlag</t>
   </si>
   <si>
     <t xml:space="preserve">INDICADOR DE VALOR
@@ -885,6 +954,9 @@
   </si>
   <si>
     <t xml:space="preserve">valueadjust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjustValue</t>
   </si>
   <si>
     <t xml:space="preserve">Para tipo de cobrança descontada, nos comandos de liquidação ou baixa de título,
@@ -982,6 +1054,9 @@
     <t xml:space="preserve">indicatorautopartial</t>
   </si>
   <si>
+    <t xml:space="preserve">authPartialFlag</t>
+  </si>
+  <si>
     <t xml:space="preserve">INDICATIVO DE AUTORIZAÇÃO PARA PAGAMENTO PARCIAL
 a) Quando informado “02” nas posições 109 – 110:
 0 - Controle do Banco (Sem Informação de Autorização de Pagamento Parcial)
@@ -1247,6 +1322,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1267,28 +1343,33 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF073763"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1480,20 +1561,21 @@
   </sheetPr>
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G116" activeCellId="0" sqref="G116"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G84" activeCellId="0" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9285714285714"/>
     <col collapsed="false" hidden="true" max="5" min="3" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8673469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.0765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3826530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.9285714285714"/>
     <col collapsed="false" hidden="true" max="10" min="10" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="16.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="17.9285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3370,13 +3452,15 @@
       <c r="F38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="H38" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6" t="s">
@@ -3418,18 +3502,20 @@
         <v>82</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="H39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6" t="s">
@@ -3471,18 +3557,20 @@
         <v>86</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="H40" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6" t="s">
@@ -3524,18 +3612,20 @@
         <v>88</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="H41" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6" t="s">
@@ -3577,7 +3667,7 @@
         <v>91</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>80</v>
@@ -3588,7 +3678,7 @@
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>20</v>
@@ -3630,12 +3720,14 @@
         <v>94</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="H43" s="6" t="s">
         <v>25</v>
       </c>
@@ -3681,18 +3773,20 @@
         <v>95</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="H44" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6" t="s">
@@ -3734,12 +3828,14 @@
         <v>100</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="H45" s="6" t="s">
         <v>34</v>
       </c>
@@ -3785,12 +3881,14 @@
         <v>105</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="H46" s="6" t="s">
         <v>34</v>
       </c>
@@ -3821,7 +3919,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B47" s="7" t="str">
         <f aca="false">IF(H47 = "","",C47&amp;" a "&amp;D47)</f>
@@ -3836,7 +3934,7 @@
         <v>106</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>86</v>
@@ -3872,7 +3970,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B48" s="7" t="str">
         <f aca="false">IF(H48 = "","",C48&amp;" a "&amp;D48)</f>
@@ -3887,12 +3985,14 @@
         <v>108</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="H48" s="6" t="s">
         <v>21</v>
       </c>
@@ -3923,7 +4023,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B49" s="7" t="str">
         <f aca="false">IF(H49 = "","",C49&amp;" a "&amp;D49)</f>
@@ -3938,18 +4038,20 @@
         <v>110</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G49" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6" t="s">
@@ -3976,7 +4078,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B50" s="7" t="str">
         <f aca="false">IF(H50 = "","",C50&amp;" a "&amp;D50)</f>
@@ -3991,12 +4093,14 @@
         <v>116</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="H50" s="6" t="s">
         <v>39</v>
       </c>
@@ -4029,7 +4133,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B51" s="7" t="str">
         <f aca="false">IF(H51 = "","",C51&amp;" a "&amp;D51)</f>
@@ -4044,12 +4148,14 @@
         <v>126</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="H51" s="6" t="s">
         <v>52</v>
       </c>
@@ -4095,14 +4201,14 @@
         <v>146</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -4131,7 +4237,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B53" s="7" t="str">
         <f aca="false">IF(H53 = "","",C53&amp;" a "&amp;D53)</f>
@@ -4146,13 +4252,13 @@
         <v>152</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>39</v>
@@ -4161,7 +4267,7 @@
         <v>73</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6" t="s">
@@ -4188,7 +4294,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B54" s="7" t="str">
         <f aca="false">IF(H54 = "","",C54&amp;" a "&amp;D54)</f>
@@ -4203,19 +4309,19 @@
         <v>165</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -4243,7 +4349,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B55" s="7" t="str">
         <f aca="false">IF(H55 = "","",C55&amp;" a "&amp;D55)</f>
@@ -4258,20 +4364,20 @@
         <v>168</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6" t="s">
@@ -4298,7 +4404,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B56" s="7" t="str">
         <f aca="false">IF(H56 = "","",C56&amp;" a "&amp;D56)</f>
@@ -4313,13 +4419,13 @@
         <v>172</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>30</v>
@@ -4366,13 +4472,13 @@
         <v>173</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>16</v>
@@ -4404,7 +4510,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B58" s="7" t="str">
         <f aca="false">IF(H58 = "","",C58&amp;" a "&amp;D58)</f>
@@ -4419,20 +4525,20 @@
         <v>175</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6" t="s">
@@ -4459,7 +4565,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B59" s="7" t="str">
         <f aca="false">IF(H59 = "","",C59&amp;" a "&amp;D59)</f>
@@ -4474,12 +4580,14 @@
         <v>181</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="H59" s="6" t="s">
         <v>39</v>
       </c>
@@ -4487,7 +4595,7 @@
         <v>73</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6" t="s">
@@ -4514,7 +4622,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B60" s="7" t="str">
         <f aca="false">IF(H60 = "","",C60&amp;" a "&amp;D60)</f>
@@ -4529,20 +4637,22 @@
         <v>188</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G60" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="H60" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6" t="s">
@@ -4569,7 +4679,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B61" s="7" t="str">
         <f aca="false">IF(H61 = "","",C61&amp;" a "&amp;D61)</f>
@@ -4584,17 +4694,19 @@
         <v>201</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G61" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="H61" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -4622,7 +4734,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B62" s="7" t="str">
         <f aca="false">IF(H62 = "","",C62&amp;" a "&amp;D62)</f>
@@ -4637,17 +4749,19 @@
         <v>214</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G62" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="H62" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -4675,7 +4789,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B63" s="7" t="str">
         <f aca="false">IF(H63 = "","",C63&amp;" a "&amp;D63)</f>
@@ -4690,17 +4804,19 @@
         <v>227</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G63" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="H63" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -4728,7 +4844,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B64" s="7" t="str">
         <f aca="false">IF(H64 = "","",C64&amp;" a "&amp;D64)</f>
@@ -4743,17 +4859,19 @@
         <v>240</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G64" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="H64" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -4781,7 +4899,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B65" s="7" t="str">
         <f aca="false">IF(H65 = "","",C65&amp;" a "&amp;D65)</f>
@@ -4796,20 +4914,22 @@
         <v>253</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G65" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="H65" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="6" t="s">
@@ -4836,7 +4956,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B66" s="7" t="str">
         <f aca="false">IF(H66 = "","",C66&amp;" a "&amp;D66)</f>
@@ -4851,17 +4971,19 @@
         <v>266</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G66" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="H66" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -4889,7 +5011,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="B67" s="7" t="str">
         <f aca="false">IF(H67 = "","",C67&amp;" a "&amp;D67)</f>
@@ -4904,17 +5026,19 @@
         <v>279</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G67" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="H67" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -4942,7 +5066,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B68" s="7" t="str">
         <f aca="false">IF(H68 = "","",C68&amp;" a "&amp;D68)</f>
@@ -4957,17 +5081,19 @@
         <v>292</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G68" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="H68" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -5010,17 +5136,19 @@
         <v>305</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G69" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="H69" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -5048,7 +5176,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B70" s="7" t="str">
         <f aca="false">IF(H70 = "","",C70&amp;" a "&amp;D70)</f>
@@ -5063,17 +5191,19 @@
         <v>318</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G70" s="6"/>
+        <v>224</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="H70" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -5101,7 +5231,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B71" s="7" t="str">
         <f aca="false">IF(H71 = "","",C71&amp;" a "&amp;D71)</f>
@@ -5116,18 +5246,20 @@
         <v>319</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G71" s="6"/>
+        <v>228</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="H71" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="6" t="s">
@@ -5154,7 +5286,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B72" s="7" t="str">
         <f aca="false">IF(H72 = "","",C72&amp;" a "&amp;D72)</f>
@@ -5169,18 +5301,20 @@
         <v>320</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G72" s="6"/>
+        <v>233</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="H72" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="K72" s="6"/>
       <c r="L72" s="6" t="s">
@@ -5207,7 +5341,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="B73" s="7" t="str">
         <f aca="false">IF(H73 = "","",C73&amp;" a "&amp;D73)</f>
@@ -5222,20 +5356,22 @@
         <v>332</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G73" s="6"/>
+        <v>238</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>239</v>
+      </c>
       <c r="H73" s="6" t="s">
         <v>59</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="6" t="s">
@@ -5262,7 +5398,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="B74" s="7" t="str">
         <f aca="false">IF(H74 = "","",C74&amp;" a "&amp;D74)</f>
@@ -5277,10 +5413,10 @@
         <v>333</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -5288,7 +5424,7 @@
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>20</v>
@@ -5315,7 +5451,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B75" s="7" t="str">
         <f aca="false">IF(H75 = "","",C75&amp;" a "&amp;D75)</f>
@@ -5330,10 +5466,10 @@
         <v>342</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -5366,7 +5502,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B76" s="7" t="str">
         <f aca="false">IF(H76 = "","",C76&amp;" a "&amp;D76)</f>
@@ -5381,7 +5517,7 @@
         <v>349</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>58</v>
@@ -5417,7 +5553,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="B77" s="7" t="str">
         <f aca="false">IF(H77 = "","",C77&amp;" a "&amp;D77)</f>
@@ -5432,7 +5568,7 @@
         <v>358</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>95</v>
@@ -5468,7 +5604,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B78" s="7" t="str">
         <f aca="false">IF(H78 = "","",C78&amp;" a "&amp;D78)</f>
@@ -5483,10 +5619,10 @@
         <v>365</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -5519,7 +5655,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="B79" s="7" t="str">
         <f aca="false">IF(H79 = "","",C79&amp;" a "&amp;D79)</f>
@@ -5534,10 +5670,10 @@
         <v>374</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6" t="s">
@@ -5570,7 +5706,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="B80" s="7" t="str">
         <f aca="false">IF(H80 = "","",C80&amp;" a "&amp;D80)</f>
@@ -5585,10 +5721,10 @@
         <v>381</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6" t="s">
@@ -5621,7 +5757,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B81" s="7" t="str">
         <f aca="false">IF(H81 = "","",C81&amp;" a "&amp;D81)</f>
@@ -5636,10 +5772,10 @@
         <v>390</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6" t="s">
@@ -5672,7 +5808,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B82" s="7" t="str">
         <f aca="false">IF(H82 = "","",C82&amp;" a "&amp;D82)</f>
@@ -5687,18 +5823,20 @@
         <v>391</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="G82" s="6"/>
+        <v>260</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="H82" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="6" t="s">
@@ -5725,7 +5863,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="B83" s="7" t="str">
         <f aca="false">IF(H83 = "","",C83&amp;" a "&amp;D83)</f>
@@ -5740,10 +5878,10 @@
         <v>392</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
@@ -5776,7 +5914,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="B84" s="7" t="str">
         <f aca="false">IF(H84 = "","",C84&amp;" a "&amp;D84)</f>
@@ -5791,18 +5929,20 @@
         <v>394</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G84" s="6"/>
+        <v>268</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="H84" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K84" s="6"/>
       <c r="L84" s="6" t="s">
@@ -5829,7 +5969,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B85" s="7" t="str">
         <f aca="false">IF(H85 = "","",C85&amp;" a "&amp;D85)</f>
@@ -5844,7 +5984,7 @@
         <v>400</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>90</v>
@@ -5958,12 +6098,12 @@
         <v>3</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="3" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -6057,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>18</v>
@@ -6110,10 +6250,10 @@
         <v>2</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>24</v>
@@ -6165,10 +6305,10 @@
         <v>4</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>33</v>
@@ -6177,7 +6317,7 @@
         <v>21</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
@@ -6220,19 +6360,19 @@
         <v>7</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -6275,7 +6415,7 @@
         <v>17</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>41</v>
@@ -6326,13 +6466,13 @@
         <v>25</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>38</v>
@@ -6379,19 +6519,19 @@
         <v>39</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>69</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
@@ -6434,13 +6574,13 @@
         <v>47</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>38</v>
@@ -6487,7 +6627,7 @@
         <v>57</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>41</v>
@@ -6538,13 +6678,13 @@
         <v>65</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>38</v>
@@ -6591,19 +6731,19 @@
         <v>79</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>69</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="6" t="s">
@@ -6646,13 +6786,13 @@
         <v>87</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>38</v>
@@ -6699,7 +6839,7 @@
         <v>97</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>80</v>
@@ -6750,13 +6890,13 @@
         <v>105</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>38</v>
@@ -6803,19 +6943,19 @@
         <v>119</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>69</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
@@ -6858,13 +6998,13 @@
         <v>127</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>38</v>
@@ -6911,7 +7051,7 @@
         <v>137</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>86</v>
@@ -6962,13 +7102,13 @@
         <v>145</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>38</v>
@@ -7015,19 +7155,19 @@
         <v>159</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>69</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
@@ -7055,7 +7195,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B109" s="7" t="str">
         <f aca="false">IF(H109 = "","",C109&amp;" a "&amp;D109)</f>
@@ -7070,13 +7210,13 @@
         <v>167</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>38</v>
@@ -7108,7 +7248,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B110" s="7" t="str">
         <f aca="false">IF(H110 = "","",C110&amp;" a "&amp;D110)</f>
@@ -7123,14 +7263,14 @@
         <v>217</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
@@ -7159,7 +7299,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B111" s="7" t="str">
         <f aca="false">IF(H111 = "","",C111&amp;" a "&amp;D111)</f>
@@ -7174,13 +7314,13 @@
         <v>225</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>38</v>
@@ -7212,7 +7352,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B112" s="7" t="str">
         <f aca="false">IF(H112 = "","",C112&amp;" a "&amp;D112)</f>
@@ -7227,19 +7367,19 @@
         <v>239</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>69</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
@@ -7267,7 +7407,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B113" s="7" t="str">
         <f aca="false">IF(H113 = "","",C113&amp;" a "&amp;D113)</f>
@@ -7282,13 +7422,13 @@
         <v>247</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>38</v>
@@ -7335,14 +7475,14 @@
         <v>394</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="6" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
@@ -7371,7 +7511,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B115" s="7" t="str">
         <f aca="false">IF(H115 = "","",C115&amp;" a "&amp;D115)</f>
@@ -7386,7 +7526,7 @@
         <v>400</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>90</v>
